--- a/biology/Médecine/Muscles_antérieurs_du_cou/Muscles_antérieurs_du_cou.xlsx
+++ b/biology/Médecine/Muscles_antérieurs_du_cou/Muscles_antérieurs_du_cou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscles_ant%C3%A9rieurs_du_cou</t>
+          <t>Muscles_antérieurs_du_cou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles antérieurs du cou sont disposés en 3 groupes :
 Profond
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscles_ant%C3%A9rieurs_du_cou</t>
+          <t>Muscles_antérieurs_du_cou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,11 @@
           <t>Muscles profonds</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles profonds sont décomposés en 2 catégories : les pré-vertébraux et les latéro-vertébraux
-Pré-vertébraux
-Les pré-vertébraux sont le muscle long du cou, le muscle long de la tête, et le muscle droit ventral de la tête (partie du muscle sub-occipital).
-Latéro-vertébraux
-Les muscles latéro-vertébraux sont le muscle droit latéral de la tête (partie du muscle sub-occipital), les muscles inter-transversaires, et le muscle scalène antérieur.
 </t>
         </is>
       </c>
@@ -531,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscles_ant%C3%A9rieurs_du_cou</t>
+          <t>Muscles_antérieurs_du_cou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,16 +556,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Muscles intermédiaires</t>
+          <t>Muscles profonds</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les muscles intermédiaires sont en deux groupes : les infra-hyoïdiens et les supra-hyoïdiens.
-Sous-hyoïdiens
-Les muscles infra-hyoïdiens sont le muscle sterno-thyroïdien (profond), le muscle thyro-hyoïdien (profond), le muscle sterno-hyoïdien (superficiel) et le muscle omo-hyoïdien (superficiel).
-Supra-hyoïdiens
-Les muscles supra-hyoïdiens sont le muscle mylo-hyoïdien, le muscle génio-hyoïdien, le muscle digastrique et le muscle stylo-hyoïdien.
+          <t>Pré-vertébraux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pré-vertébraux sont le muscle long du cou, le muscle long de la tête, et le muscle droit ventral de la tête (partie du muscle sub-occipital).
 </t>
         </is>
       </c>
@@ -566,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscles_ant%C3%A9rieurs_du_cou</t>
+          <t>Muscles_antérieurs_du_cou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +593,156 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Muscles profonds</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Latéro-vertébraux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les muscles latéro-vertébraux sont le muscle droit latéral de la tête (partie du muscle sub-occipital), les muscles inter-transversaires, et le muscle scalène antérieur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscles_antérieurs_du_cou</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscles_ant%C3%A9rieurs_du_cou</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Muscles intermédiaires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les muscles intermédiaires sont en deux groupes : les infra-hyoïdiens et les supra-hyoïdiens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscles_antérieurs_du_cou</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscles_ant%C3%A9rieurs_du_cou</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Muscles intermédiaires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-hyoïdiens</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les muscles infra-hyoïdiens sont le muscle sterno-thyroïdien (profond), le muscle thyro-hyoïdien (profond), le muscle sterno-hyoïdien (superficiel) et le muscle omo-hyoïdien (superficiel).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscles_antérieurs_du_cou</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscles_ant%C3%A9rieurs_du_cou</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Muscles intermédiaires</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Supra-hyoïdiens</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les muscles supra-hyoïdiens sont le muscle mylo-hyoïdien, le muscle génio-hyoïdien, le muscle digastrique et le muscle stylo-hyoïdien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muscles_antérieurs_du_cou</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscles_ant%C3%A9rieurs_du_cou</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Muscles superficiels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles superficiels sont le muscle sterno-cléido-mastoïdien, avec ses deux parties profonde et superficielle, et le muscle platysma.
 </t>
